--- a/src/AHU inventory.xlsx
+++ b/src/AHU inventory.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="461">
   <si>
     <t>Building</t>
   </si>
@@ -1433,6 +1433,12 @@
   </si>
   <si>
     <t>Possible Opporotunity? Make separate schedule (?? Unit)</t>
+  </si>
+  <si>
+    <t>BAINER HALL TOWER AC SCHEDULE</t>
+  </si>
+  <si>
+    <t>MU S8 SCHEDULE</t>
   </si>
 </sst>
 </file>
@@ -1504,11 +1510,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1521,6 +1524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,25 +1835,25 @@
   <dimension ref="A1:G338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1858,12 +1865,12 @@
       <c r="E1" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1877,7 +1884,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1891,7 +1898,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1905,7 +1912,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1919,7 +1926,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1933,7 +1940,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1947,7 +1954,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1961,7 +1968,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1975,7 +1982,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1989,7 +1996,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2017,7 +2024,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2031,7 +2038,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2045,7 +2052,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2059,7 +2066,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2073,7 +2080,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2087,7 +2094,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2101,7 +2108,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2115,7 +2122,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2129,7 +2136,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2143,7 +2150,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2157,7 +2164,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2171,7 +2178,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2185,7 +2192,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2199,7 +2206,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2213,7 +2220,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2227,7 +2234,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2241,7 +2248,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2255,7 +2262,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2269,7 +2276,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2283,7 +2290,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2297,7 +2304,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2311,7 +2318,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2325,7 +2332,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2339,7 +2346,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2353,7 +2360,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2367,7 +2374,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2381,7 +2388,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2395,7 +2402,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2409,7 +2416,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2423,7 +2430,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2437,7 +2444,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2451,7 +2458,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2465,7 +2472,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2479,7 +2486,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2493,7 +2500,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2507,7 +2514,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2521,7 +2528,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2535,7 +2542,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2549,7 +2556,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2563,7 +2570,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2577,7 +2584,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2591,7 +2598,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2605,7 +2612,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2619,7 +2626,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2633,7 +2640,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2647,7 +2654,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2661,7 +2668,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2675,7 +2682,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2689,7 +2696,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2703,7 +2710,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2717,7 +2724,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2731,7 +2738,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2745,7 +2752,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2759,7 +2766,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2773,7 +2780,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2787,7 +2794,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2801,7 +2808,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2815,7 +2822,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2829,7 +2836,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2843,7 +2850,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2857,7 +2864,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2874,7 +2881,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2888,7 +2895,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2901,11 +2908,11 @@
         <v>401</v>
       </c>
       <c r="F75" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2922,7 +2929,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2939,7 +2946,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2956,7 +2963,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2969,11 +2976,11 @@
         <v>401</v>
       </c>
       <c r="F79" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2990,7 +2997,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3007,7 +3014,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3055,7 +3062,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3069,7 +3076,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3083,7 +3090,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3100,7 +3107,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3117,7 +3124,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3134,7 +3141,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3151,7 +3158,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -3165,7 +3172,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3182,7 +3189,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -3199,7 +3206,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -3216,7 +3223,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -3233,7 +3240,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -3250,7 +3257,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3264,7 +3271,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -3278,7 +3285,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -3292,7 +3299,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -3306,7 +3313,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -3320,7 +3327,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3334,7 +3341,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3348,7 +3355,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3362,7 +3369,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3376,7 +3383,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -3390,7 +3397,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3404,7 +3411,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3418,7 +3425,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -3432,7 +3439,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3446,7 +3453,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3460,7 +3467,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3474,7 +3481,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3488,7 +3495,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3502,7 +3509,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3516,7 +3523,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3533,7 +3540,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3550,7 +3557,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3581,7 +3588,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3595,7 +3602,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3609,7 +3616,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3623,7 +3630,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -3637,7 +3644,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3651,7 +3658,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -3665,7 +3672,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -3679,7 +3686,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -3693,7 +3700,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -3707,7 +3714,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -3786,7 +3793,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -3800,7 +3807,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -3814,7 +3821,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -3828,7 +3835,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -3842,7 +3849,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -3856,7 +3863,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -3870,7 +3877,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -3884,7 +3891,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -3898,7 +3905,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -3912,7 +3919,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -3926,7 +3933,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -3940,7 +3947,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -3950,14 +3957,14 @@
         <v>405</v>
       </c>
       <c r="F145" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G145" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -3967,14 +3974,14 @@
         <v>405</v>
       </c>
       <c r="F146" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G146">
         <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -3988,7 +3995,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -3998,14 +4005,14 @@
         <v>405</v>
       </c>
       <c r="F148" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G148">
         <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -4019,7 +4026,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -4033,7 +4040,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -4050,7 +4057,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -4067,7 +4074,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -4084,7 +4091,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -4101,7 +4108,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -4118,7 +4125,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -4135,7 +4142,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -4152,7 +4159,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -4169,7 +4176,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -4186,7 +4193,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -4203,7 +4210,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -4220,7 +4227,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -4237,7 +4244,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -4254,7 +4261,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -4271,7 +4278,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -4288,7 +4295,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -4305,7 +4312,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -4322,7 +4329,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -4339,7 +4346,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -4356,7 +4363,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -4373,7 +4380,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -4390,7 +4397,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -4407,7 +4414,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -4424,7 +4431,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -4441,7 +4448,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -4458,7 +4465,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -4475,7 +4482,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -4492,7 +4499,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -4509,7 +4516,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -4526,7 +4533,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -4543,7 +4550,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -4574,7 +4581,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -4588,7 +4595,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -4602,7 +4609,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -4616,7 +4623,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -4630,7 +4637,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -4647,7 +4654,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -4664,7 +4671,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -4695,7 +4702,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -4709,7 +4716,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -4723,7 +4730,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -4737,7 +4744,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -4751,7 +4758,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -4765,7 +4772,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -4779,7 +4786,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -4793,7 +4800,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -4807,7 +4814,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -4821,7 +4828,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -4835,7 +4842,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -4849,7 +4856,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -4863,7 +4870,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -4877,7 +4884,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -4891,7 +4898,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -4905,7 +4912,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -4984,7 +4991,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -5001,7 +5008,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -5021,7 +5028,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -5038,7 +5045,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -5055,7 +5062,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -5072,7 +5079,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -5089,7 +5096,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -5106,7 +5113,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -5123,7 +5130,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -5140,7 +5147,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -5157,7 +5164,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -5174,7 +5181,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -5191,7 +5198,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -5208,7 +5215,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -5245,7 +5252,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -5259,7 +5266,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -5273,7 +5280,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -5287,7 +5294,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -5315,7 +5322,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -5329,7 +5336,7 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -5343,7 +5350,7 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -5360,7 +5367,7 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -5377,7 +5384,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -5422,7 +5429,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -5439,7 +5446,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -5456,7 +5463,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -5473,7 +5480,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -5487,7 +5494,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -5501,7 +5508,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -5515,7 +5522,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -5529,7 +5536,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -5543,7 +5550,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -5557,7 +5564,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -5571,7 +5578,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -5585,7 +5592,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -5599,7 +5606,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -5613,7 +5620,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -5627,7 +5634,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -5641,7 +5648,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -5655,7 +5662,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -5669,7 +5676,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -5683,7 +5690,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -5697,7 +5704,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -5711,7 +5718,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -5725,7 +5732,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -5739,7 +5746,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -5756,7 +5763,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -5770,7 +5777,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -5784,7 +5791,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B263" s="1">
@@ -5798,7 +5805,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B264" s="1">
@@ -5812,7 +5819,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B265" s="1">
@@ -5826,7 +5833,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -5840,7 +5847,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -5854,7 +5861,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -5882,7 +5889,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -5896,7 +5903,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -5910,7 +5917,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -5924,7 +5931,7 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -5938,7 +5945,7 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -5952,7 +5959,7 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -5966,7 +5973,7 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -5980,7 +5987,7 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -5994,7 +6001,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -6008,7 +6015,7 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -6022,7 +6029,7 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -6036,7 +6043,7 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -6050,7 +6057,7 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -6067,7 +6074,7 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -6112,7 +6119,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -6126,7 +6133,7 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -6140,7 +6147,7 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -6157,7 +6164,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -6174,7 +6181,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B290" s="1" t="s">
@@ -6191,7 +6198,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -6208,7 +6215,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -6225,7 +6232,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -6242,7 +6249,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -6259,7 +6266,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -6276,7 +6283,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -6293,7 +6300,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -6310,7 +6317,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -6327,7 +6334,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -6344,7 +6351,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -6361,7 +6368,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B301" s="1" t="s">
@@ -6378,7 +6385,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -6395,7 +6402,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B303" s="1" t="s">
@@ -6412,7 +6419,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B304" s="1" t="s">
@@ -6429,7 +6436,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B305" s="1" t="s">
@@ -6446,7 +6453,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B306" s="1" t="s">
@@ -6463,7 +6470,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B307" s="1" t="s">
@@ -6480,7 +6487,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B308" s="1" t="s">
@@ -6497,7 +6504,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B309" s="1" t="s">
@@ -6514,7 +6521,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -6531,7 +6538,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -6548,7 +6555,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B312" s="1" t="s">
@@ -6565,7 +6572,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -6582,7 +6589,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B314" s="1" t="s">
@@ -6599,7 +6606,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -6616,7 +6623,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B316" s="1" t="s">
@@ -6633,7 +6640,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B317" s="1" t="s">
@@ -6650,7 +6657,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -6667,7 +6674,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B319" s="1" t="s">
@@ -6684,7 +6691,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B320" s="1" t="s">
@@ -6701,7 +6708,7 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B321" s="1" t="s">
@@ -6718,7 +6725,7 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -6735,7 +6742,7 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B323" s="1" t="s">
@@ -6752,7 +6759,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -6769,7 +6776,7 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B325" s="1" t="s">
@@ -6786,7 +6793,7 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -6803,7 +6810,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -6820,7 +6827,7 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -6837,7 +6844,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -6868,7 +6875,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B331" s="1" t="s">
@@ -6885,7 +6892,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -6902,7 +6909,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B333" s="1" t="s">
@@ -6916,7 +6923,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B334" s="1" t="s">
@@ -6933,7 +6940,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B335" s="1" t="s">
@@ -6947,7 +6954,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -6961,7 +6968,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -6975,7 +6982,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B338" s="1" t="s">

--- a/src/AHU inventory.xlsx
+++ b/src/AHU inventory.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$338</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="491">
   <si>
     <t>Building</t>
   </si>
@@ -916,9 +917,6 @@
     <t>MULTI-PURPOSE ROOM</t>
   </si>
   <si>
-    <t>MULTI-PURPOSE ROOM W/ S.</t>
-  </si>
-  <si>
     <t>REFLECTION ROOM</t>
   </si>
   <si>
@@ -1330,9 +1328,6 @@
     <t>HART HALL AHU 2 SCHEDULE</t>
   </si>
   <si>
-    <t>GMS.AHU3.ZONE</t>
-  </si>
-  <si>
     <t>RM 2002</t>
   </si>
   <si>
@@ -1360,9 +1355,6 @@
     <t>RM 1417</t>
   </si>
   <si>
-    <t>SCC.CONFERENCE.ZONE</t>
-  </si>
-  <si>
     <t>ROESSLER AC07 SCHEDULE</t>
   </si>
   <si>
@@ -1390,9 +1382,6 @@
     <t>Young Hall_Build_Sched</t>
   </si>
   <si>
-    <t>Cant find schedule in siemens</t>
-  </si>
-  <si>
     <t>Cant find AHU in graphics</t>
   </si>
   <si>
@@ -1439,13 +1428,115 @@
   </si>
   <si>
     <t>MU S8 SCHEDULE</t>
+  </si>
+  <si>
+    <t>RM 2405</t>
+  </si>
+  <si>
+    <t>All AHUs - need to make group in siemens scheduler</t>
+  </si>
+  <si>
+    <t>AHU5,6,7 - need to make group in insight scheduler</t>
+  </si>
+  <si>
+    <t>SCC.CONFERENCE.ZONE, SCC.BLDG.ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTI-PURPOSE ROOM W/ S. </t>
+  </si>
+  <si>
+    <t>Rec Hall_Schedule</t>
+  </si>
+  <si>
+    <t>Rec Hall Main Floor_Schedule</t>
+  </si>
+  <si>
+    <t>GSM.AHU2.ZONE, GSM.AHU3.ZONE, GSM.AHU4.ZONE, GSM.CP.SYSTEM.ZONE, GSM.WINDOW.CONF1.ZONE, GSM.WINDOW.CONF2.ZONE</t>
+  </si>
+  <si>
+    <t>GSM.AHU2.ZONE</t>
+  </si>
+  <si>
+    <t>GSM.AHU4.ZONE</t>
+  </si>
+  <si>
+    <t>GSM.AHU3.ZONE, GSM.CP.SYSTEM.ZONE, GSM.WINDOW.CONF1.ZONE, GSM.WINDOW.CONF2.ZONE</t>
+  </si>
+  <si>
+    <t>GSM.AHU2.ZONE, GSM.AHU4.ZONE, GSM.CP.SYSTEM.ZONE, GSM.WINDOW.CONF1.ZONE, GSM.WINDOW.CONF2.ZONE</t>
+  </si>
+  <si>
+    <t>SCC.BLDG.ZONE, SCC.CCC.ZONE</t>
+  </si>
+  <si>
+    <t>AC1 probably, need to confirm drawings</t>
+  </si>
+  <si>
+    <t>BAINER HALL AC01 SCHEDULE</t>
+  </si>
+  <si>
+    <t>probably rm 0165 - ask T dawg</t>
+  </si>
+  <si>
+    <t>Rm 247</t>
+  </si>
+  <si>
+    <t>Above the basketball courts - AHU4</t>
+  </si>
+  <si>
+    <t>Rm 127-129 AHu7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHU 4 </t>
+  </si>
+  <si>
+    <t>t dwag</t>
+  </si>
+  <si>
+    <t>S2 / E6</t>
+  </si>
+  <si>
+    <t>LFH.S2.SCHEDULE</t>
+  </si>
+  <si>
+    <t>MU DINING COHO SCHEDULE</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Is there more details on which meeting rooms this is referring to?</t>
+  </si>
+  <si>
+    <t>Is this space attached to a room number? We think it may be RM 0165</t>
+  </si>
+  <si>
+    <t>Is this space attached to a room number?</t>
+  </si>
+  <si>
+    <t>Is this an indoor perimeter space or is it referring to the outside of the building?</t>
+  </si>
+  <si>
+    <t>Are these specific public rooms listed somewhere?</t>
+  </si>
+  <si>
+    <t>201, 202, 203 …</t>
+  </si>
+  <si>
+    <t>Is this building part of the UCD campus or is it located in Sacramento?</t>
+  </si>
+  <si>
+    <t>ARC.AHU4.SCHEDULE</t>
+  </si>
+  <si>
+    <t>ARC.AHU7.SCHEDULE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,6 +1565,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1483,7 +1589,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1506,11 +1612,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1528,6 +1686,28 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1834,22 +2014,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="6" max="6" width="122.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1857,590 +2037,623 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" t="s">
+        <v>489</v>
+      </c>
+      <c r="G16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" t="s">
+        <v>489</v>
+      </c>
+      <c r="G17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" t="s">
+        <v>489</v>
+      </c>
+      <c r="G18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" t="s">
+        <v>490</v>
+      </c>
+      <c r="G20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" t="s">
+        <v>490</v>
+      </c>
+      <c r="G21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F24" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F26" t="s">
+        <v>471</v>
+      </c>
+      <c r="G26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>404</v>
+      </c>
+      <c r="F28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C29" t="s">
+        <v>401</v>
+      </c>
+      <c r="F29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C30" t="s">
+        <v>404</v>
+      </c>
+      <c r="F30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C31" t="s">
+        <v>404</v>
+      </c>
+      <c r="F31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>405</v>
-      </c>
-      <c r="F6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>405</v>
-      </c>
-      <c r="F10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>405</v>
-      </c>
-      <c r="F11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>402</v>
-      </c>
-      <c r="F14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>402</v>
-      </c>
-      <c r="F15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>402</v>
-      </c>
-      <c r="F16" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>402</v>
-      </c>
-      <c r="F17" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>402</v>
-      </c>
-      <c r="F18" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>402</v>
-      </c>
-      <c r="F23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>402</v>
-      </c>
-      <c r="F24" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>402</v>
-      </c>
-      <c r="F25" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>402</v>
-      </c>
-      <c r="F26" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>402</v>
-      </c>
-      <c r="F28" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>402</v>
-      </c>
-      <c r="F29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>402</v>
-      </c>
-      <c r="F30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>402</v>
-      </c>
-      <c r="F31" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,13 +2661,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,13 +2675,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2476,13 +2689,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,13 +2703,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,13 +2717,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2518,479 +2731,458 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F52" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F54" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F56" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F58" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F60" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="s">
+        <v>401</v>
+      </c>
+      <c r="F64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>401</v>
+      </c>
+      <c r="F65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>401</v>
+      </c>
+      <c r="F66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>401</v>
+      </c>
+      <c r="F67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>401</v>
+      </c>
+      <c r="F68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>401</v>
+      </c>
+      <c r="F69" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>401</v>
+      </c>
+      <c r="F70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>401</v>
+      </c>
+      <c r="F71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="s">
+        <v>401</v>
+      </c>
+      <c r="F72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>401</v>
+      </c>
+      <c r="F73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>401</v>
+      </c>
+      <c r="F74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>401</v>
+      </c>
+      <c r="F75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>401</v>
+      </c>
+      <c r="F76" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>401</v>
+      </c>
+      <c r="F77" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" t="s">
-        <v>405</v>
-      </c>
-      <c r="F64" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>405</v>
-      </c>
-      <c r="F65" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>405</v>
-      </c>
-      <c r="F66" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" t="s">
-        <v>405</v>
-      </c>
-      <c r="F67" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" t="s">
-        <v>405</v>
-      </c>
-      <c r="F68" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>405</v>
-      </c>
-      <c r="F69" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>405</v>
-      </c>
-      <c r="F70" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" t="s">
-        <v>405</v>
-      </c>
-      <c r="F71" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" t="s">
-        <v>405</v>
-      </c>
-      <c r="F72" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" t="s">
-        <v>405</v>
-      </c>
-      <c r="F73" t="s">
-        <v>450</v>
-      </c>
-      <c r="G73" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>405</v>
-      </c>
-      <c r="F74" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" t="s">
-        <v>405</v>
-      </c>
-      <c r="E75" t="s">
-        <v>401</v>
-      </c>
-      <c r="F75" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" t="s">
-        <v>405</v>
-      </c>
-      <c r="E76" t="s">
-        <v>401</v>
-      </c>
-      <c r="F76" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" t="s">
-        <v>405</v>
-      </c>
-      <c r="E77" t="s">
-        <v>401</v>
-      </c>
-      <c r="F77" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
-        <v>405</v>
-      </c>
-      <c r="E78" t="s">
         <v>401</v>
       </c>
       <c r="F78" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>405</v>
-      </c>
-      <c r="E79" t="s">
         <v>401</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>405</v>
-      </c>
-      <c r="E80" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
         <v>421</v>
@@ -2998,33 +3190,30 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>405</v>
-      </c>
-      <c r="E81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F81" t="s">
         <v>421</v>
+      </c>
+      <c r="G81" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>405</v>
-      </c>
-      <c r="E82" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F82" t="s">
         <v>421</v>
@@ -3032,3288 +3221,3291 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F83" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>405</v>
-      </c>
-      <c r="D84" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F84" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F87" t="s">
-        <v>406</v>
-      </c>
-      <c r="G87" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F88" t="s">
-        <v>406</v>
-      </c>
-      <c r="G88" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F89" t="s">
-        <v>406</v>
-      </c>
-      <c r="G89" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>405</v>
-      </c>
-      <c r="D90" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F90" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>405</v>
-      </c>
-      <c r="D92" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F92" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>405</v>
-      </c>
-      <c r="D93" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F93" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
-      </c>
-      <c r="D94" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F94" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
-      </c>
-      <c r="D95" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F95" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
-      </c>
-      <c r="D96" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F96" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F98" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F99" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F102" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F103" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F104" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F105" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F106" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F108" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="C109" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="D109" t="s">
+        <v>404</v>
       </c>
       <c r="F109" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F110" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F112" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F113" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F114" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F115" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F116" t="s">
-        <v>455</v>
-      </c>
-      <c r="G116" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>405</v>
-      </c>
-      <c r="E117" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F117" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="C118" t="s">
-        <v>405</v>
-      </c>
-      <c r="E118" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F118" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F119" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="C120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F120" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="C121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F121" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F122" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F123" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F124" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="C125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F125" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="C126" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="E126" t="s">
+        <v>404</v>
       </c>
       <c r="F126" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="C127" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="E127" t="s">
+        <v>404</v>
       </c>
       <c r="F127" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="C128" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="E128" t="s">
+        <v>404</v>
       </c>
       <c r="F128" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="C129" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F129" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C130" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F130" t="s">
-        <v>457</v>
-      </c>
-      <c r="G130" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="C131" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F131" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>196</v>
+        <v>304</v>
       </c>
       <c r="C132" t="s">
-        <v>405</v>
-      </c>
-      <c r="D132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F132" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F133" t="s">
-        <v>439</v>
-      </c>
-      <c r="G133" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="C134" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F134" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>199</v>
+        <v>307</v>
       </c>
       <c r="C135" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F135" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" t="s">
+        <v>401</v>
+      </c>
+      <c r="F137" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C138" t="s">
+        <v>401</v>
+      </c>
+      <c r="F138" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C139" t="s">
+        <v>401</v>
+      </c>
+      <c r="F139" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" t="s">
+        <v>401</v>
+      </c>
+      <c r="F140" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C141" t="s">
+        <v>401</v>
+      </c>
+      <c r="F141" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C142" t="s">
+        <v>401</v>
+      </c>
+      <c r="F142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" t="s">
+        <v>401</v>
+      </c>
+      <c r="F143" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C144" t="s">
+        <v>401</v>
+      </c>
+      <c r="F144" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" t="s">
+        <v>401</v>
+      </c>
+      <c r="F145" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C146" t="s">
+        <v>401</v>
+      </c>
+      <c r="F146" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C147" t="s">
+        <v>401</v>
+      </c>
+      <c r="F147" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" t="s">
+        <v>401</v>
+      </c>
+      <c r="F148" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" t="s">
+        <v>401</v>
+      </c>
+      <c r="F149" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
+        <v>401</v>
+      </c>
+      <c r="F150" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" t="s">
+        <v>401</v>
+      </c>
+      <c r="F151" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="1">
         <v>201</v>
       </c>
-      <c r="C137" t="s">
-        <v>405</v>
-      </c>
-      <c r="F137" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B138" s="1" t="s">
+      <c r="C152" t="s">
+        <v>400</v>
+      </c>
+      <c r="F152" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B153" s="1">
         <v>202</v>
       </c>
-      <c r="C138" t="s">
-        <v>405</v>
-      </c>
-      <c r="F138" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="C153" t="s">
+        <v>400</v>
+      </c>
+      <c r="F153" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B154" s="1">
         <v>203</v>
       </c>
-      <c r="C139" t="s">
-        <v>405</v>
-      </c>
-      <c r="F139" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C140" t="s">
-        <v>401</v>
-      </c>
-      <c r="F140" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C141" t="s">
-        <v>405</v>
-      </c>
-      <c r="F141" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C142" t="s">
-        <v>405</v>
-      </c>
-      <c r="F142" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C143" t="s">
-        <v>405</v>
-      </c>
-      <c r="F143" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C144" t="s">
-        <v>405</v>
-      </c>
-      <c r="F144" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C145" t="s">
-        <v>405</v>
-      </c>
-      <c r="F145" t="s">
-        <v>460</v>
-      </c>
-      <c r="G145" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C146" t="s">
-        <v>405</v>
-      </c>
-      <c r="F146" t="s">
-        <v>460</v>
-      </c>
-      <c r="G146">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C147" t="s">
-        <v>405</v>
-      </c>
-      <c r="F147" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C148" t="s">
-        <v>405</v>
-      </c>
-      <c r="F148" t="s">
-        <v>460</v>
-      </c>
-      <c r="G148">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C149" t="s">
-        <v>405</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="C154" t="s">
+        <v>400</v>
+      </c>
+      <c r="F154" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" t="s">
+        <v>400</v>
+      </c>
+      <c r="F155" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C156" t="s">
+        <v>401</v>
+      </c>
+      <c r="F156" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" t="s">
+        <v>401</v>
+      </c>
+      <c r="F157" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" t="s">
+        <v>401</v>
+      </c>
+      <c r="F158" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C159" t="s">
+        <v>401</v>
+      </c>
+      <c r="F159" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" t="s">
+        <v>401</v>
+      </c>
+      <c r="F160" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" t="s">
+        <v>401</v>
+      </c>
+      <c r="F161" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" t="s">
+        <v>401</v>
+      </c>
+      <c r="F162" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C163" t="s">
+        <v>401</v>
+      </c>
+      <c r="F163" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C164" t="s">
+        <v>401</v>
+      </c>
+      <c r="D164" t="s">
+        <v>404</v>
+      </c>
+      <c r="F164" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" t="s">
+        <v>401</v>
+      </c>
+      <c r="D165" t="s">
+        <v>404</v>
+      </c>
+      <c r="F165" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C166" t="s">
+        <v>401</v>
+      </c>
+      <c r="D166" t="s">
+        <v>404</v>
+      </c>
+      <c r="F166" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C167" t="s">
+        <v>401</v>
+      </c>
+      <c r="F167" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C168" t="s">
+        <v>401</v>
+      </c>
+      <c r="F168" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" t="s">
+        <v>404</v>
+      </c>
+      <c r="F169" t="s">
+        <v>421</v>
+      </c>
+      <c r="G169" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" t="s">
+        <v>401</v>
+      </c>
+      <c r="F170" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C171" t="s">
+        <v>404</v>
+      </c>
+      <c r="D171" t="s">
+        <v>404</v>
+      </c>
+      <c r="F171" t="s">
+        <v>433</v>
+      </c>
+      <c r="G171" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C172" t="s">
+        <v>404</v>
+      </c>
+      <c r="D172" t="s">
+        <v>404</v>
+      </c>
+      <c r="F172" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C150" t="s">
-        <v>402</v>
-      </c>
-      <c r="F150" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C151" t="s">
-        <v>405</v>
-      </c>
-      <c r="F151" t="s">
-        <v>448</v>
-      </c>
-      <c r="G151">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C152" t="s">
-        <v>405</v>
-      </c>
-      <c r="D152" t="s">
-        <v>405</v>
-      </c>
-      <c r="F152" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C153" t="s">
-        <v>405</v>
-      </c>
-      <c r="D153" t="s">
-        <v>405</v>
-      </c>
-      <c r="F153" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C154" t="s">
-        <v>405</v>
-      </c>
-      <c r="D154" t="s">
-        <v>405</v>
-      </c>
-      <c r="F154" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C155" t="s">
-        <v>405</v>
-      </c>
-      <c r="D155" t="s">
-        <v>405</v>
-      </c>
-      <c r="F155" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C156" t="s">
-        <v>405</v>
-      </c>
-      <c r="D156" t="s">
-        <v>405</v>
-      </c>
-      <c r="F156" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C157" t="s">
-        <v>405</v>
-      </c>
-      <c r="D157" t="s">
-        <v>405</v>
-      </c>
-      <c r="F157" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C158" t="s">
-        <v>405</v>
-      </c>
-      <c r="D158" t="s">
-        <v>405</v>
-      </c>
-      <c r="F158" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C159" t="s">
-        <v>405</v>
-      </c>
-      <c r="D159" t="s">
-        <v>405</v>
-      </c>
-      <c r="F159" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C160" t="s">
-        <v>405</v>
-      </c>
-      <c r="D160" t="s">
-        <v>405</v>
-      </c>
-      <c r="F160" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C161" t="s">
-        <v>405</v>
-      </c>
-      <c r="D161" t="s">
-        <v>405</v>
-      </c>
-      <c r="F161" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C162" t="s">
-        <v>405</v>
-      </c>
-      <c r="D162" t="s">
-        <v>405</v>
-      </c>
-      <c r="F162" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C163" t="s">
-        <v>405</v>
-      </c>
-      <c r="D163" t="s">
-        <v>405</v>
-      </c>
-      <c r="F163" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C164" t="s">
-        <v>405</v>
-      </c>
-      <c r="D164" t="s">
-        <v>405</v>
-      </c>
-      <c r="F164" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C165" t="s">
-        <v>405</v>
-      </c>
-      <c r="D165" t="s">
-        <v>405</v>
-      </c>
-      <c r="F165" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C166" t="s">
-        <v>405</v>
-      </c>
-      <c r="D166" t="s">
-        <v>405</v>
-      </c>
-      <c r="F166" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C167" t="s">
-        <v>405</v>
-      </c>
-      <c r="D167" t="s">
-        <v>405</v>
-      </c>
-      <c r="F167" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C168" t="s">
-        <v>405</v>
-      </c>
-      <c r="D168" t="s">
-        <v>405</v>
-      </c>
-      <c r="F168" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C169" t="s">
-        <v>405</v>
-      </c>
-      <c r="D169" t="s">
-        <v>405</v>
-      </c>
-      <c r="F169" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C170" t="s">
-        <v>405</v>
-      </c>
-      <c r="D170" t="s">
-        <v>405</v>
-      </c>
-      <c r="F170" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C171" t="s">
-        <v>405</v>
-      </c>
-      <c r="D171" t="s">
-        <v>405</v>
-      </c>
-      <c r="F171" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C172" t="s">
-        <v>405</v>
-      </c>
-      <c r="D172" t="s">
-        <v>405</v>
-      </c>
-      <c r="F172" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="C173" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F173" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="C174" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D174" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F174" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="C175" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F175" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="C176" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F176" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="C177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F177" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="C178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F178" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="C179" t="s">
-        <v>405</v>
-      </c>
-      <c r="D179" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F179" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="C180" t="s">
-        <v>405</v>
-      </c>
-      <c r="D180" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F180" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="G180" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="C181" t="s">
-        <v>402</v>
-      </c>
-      <c r="D181" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F181" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="C182" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F182" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="C183" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F183" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F184" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="C185" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F185" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="C186" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F186" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="C187" t="s">
-        <v>405</v>
-      </c>
-      <c r="E187" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F187" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
-      </c>
-      <c r="E188" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F188" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="C189" t="s">
-        <v>405</v>
-      </c>
-      <c r="E189" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F189" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="C190" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F190" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="C191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F191" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F192" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="C193" t="s">
+        <v>404</v>
+      </c>
+      <c r="F193" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C194" t="s">
+        <v>404</v>
+      </c>
+      <c r="F194" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C195" t="s">
+        <v>404</v>
+      </c>
+      <c r="F195" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C196" t="s">
+        <v>404</v>
+      </c>
+      <c r="F196" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C197" t="s">
+        <v>404</v>
+      </c>
+      <c r="F197" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C198" t="s">
+        <v>404</v>
+      </c>
+      <c r="F198" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C199" t="s">
+        <v>404</v>
+      </c>
+      <c r="F199" t="s">
+        <v>451</v>
+      </c>
+      <c r="G199" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C200" t="s">
+        <v>404</v>
+      </c>
+      <c r="F200" t="s">
+        <v>453</v>
+      </c>
+      <c r="G200" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C201" t="s">
+        <v>404</v>
+      </c>
+      <c r="D201" t="s">
+        <v>404</v>
+      </c>
+      <c r="F201" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" t="s">
+        <v>404</v>
+      </c>
+      <c r="F202" t="s">
+        <v>479</v>
+      </c>
+      <c r="G202" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
         <v>405</v>
       </c>
-      <c r="F193" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="G203" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
       </c>
-      <c r="F194" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="G204" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C205" t="s">
+        <v>404</v>
+      </c>
+      <c r="F205" t="s">
         <v>405</v>
       </c>
-      <c r="F195" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="G205" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s">
+        <v>400</v>
+      </c>
+      <c r="F206" t="s">
         <v>405</v>
       </c>
-      <c r="F196" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C197" t="s">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
       </c>
-      <c r="F197" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="G207" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C208" t="s">
+        <v>404</v>
+      </c>
+      <c r="F208" t="s">
         <v>405</v>
       </c>
-      <c r="F198" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C199" t="s">
-        <v>405</v>
-      </c>
-      <c r="F199" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C200" t="s">
-        <v>405</v>
-      </c>
-      <c r="F200" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C201" t="s">
-        <v>405</v>
-      </c>
-      <c r="F201" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C202" t="s">
-        <v>405</v>
-      </c>
-      <c r="F202" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C203" t="s">
-        <v>405</v>
-      </c>
-      <c r="F203" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C204" t="s">
-        <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C205" t="s">
-        <v>405</v>
-      </c>
-      <c r="F205" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C206" t="s">
-        <v>405</v>
-      </c>
-      <c r="F206" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C207" t="s">
-        <v>402</v>
-      </c>
-      <c r="F207" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C208" t="s">
-        <v>402</v>
-      </c>
-      <c r="F208" t="s">
-        <v>422</v>
+      <c r="G208" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="C209" t="s">
-        <v>405</v>
-      </c>
-      <c r="E209" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>421</v>
+        <v>436</v>
+      </c>
+      <c r="G209" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="C210" t="s">
-        <v>405</v>
-      </c>
-      <c r="D210" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>436</v>
-      </c>
-      <c r="G210" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>405</v>
-      </c>
-      <c r="D211" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>405</v>
-      </c>
-      <c r="D212" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
-      </c>
-      <c r="G212" t="s">
         <v>444</v>
+      </c>
+      <c r="G212">
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="C213" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="G213" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>401</v>
-      </c>
-      <c r="G214" t="s">
-        <v>432</v>
+        <v>456</v>
+      </c>
+      <c r="G214">
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="C215" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F215" t="s">
-        <v>434</v>
-      </c>
-      <c r="G215" t="s">
-        <v>425</v>
+        <v>456</v>
+      </c>
+      <c r="G215">
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="C216" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D216" t="s">
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>434</v>
-      </c>
-      <c r="G216" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D217" t="s">
+        <v>404</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
-      </c>
-      <c r="G217" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="C218" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D218" t="s">
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
-      </c>
-      <c r="G218" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D219" t="s">
+        <v>404</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
-      </c>
-      <c r="G219" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D220" t="s">
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
-      </c>
-      <c r="G220" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="C221" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D221" t="s">
+        <v>404</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
-      </c>
-      <c r="G221" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>286</v>
+        <v>31</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D222" t="s">
+        <v>404</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
-      </c>
-      <c r="G222" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D223" t="s">
+        <v>404</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
-      </c>
-      <c r="G223" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D224" t="s">
+        <v>404</v>
       </c>
       <c r="F224" t="s">
-        <v>401</v>
-      </c>
-      <c r="G224" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="C225" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D225" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F225" t="s">
-        <v>419</v>
-      </c>
-      <c r="G225" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="C226" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D226" t="s">
+        <v>404</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="C227" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D227" t="s">
+        <v>404</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="C228" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D228" t="s">
+        <v>404</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="C229" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D229" t="s">
+        <v>404</v>
       </c>
       <c r="F229" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D230" t="s">
+        <v>404</v>
       </c>
       <c r="F230" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="C231" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D231" t="s">
+        <v>404</v>
       </c>
       <c r="F231" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="C232" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D232" t="s">
+        <v>404</v>
       </c>
       <c r="F232" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="C233" t="s">
-        <v>402</v>
-      </c>
-      <c r="E233" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D233" t="s">
+        <v>404</v>
       </c>
       <c r="F233" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>402</v>
-      </c>
-      <c r="E234" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D234" t="s">
+        <v>404</v>
       </c>
       <c r="F234" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="C235" t="s">
-        <v>402</v>
-      </c>
-      <c r="E235" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D235" t="s">
+        <v>404</v>
       </c>
       <c r="F235" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="C236" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D236" t="s">
+        <v>404</v>
       </c>
       <c r="F236" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="C237" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D237" t="s">
+        <v>404</v>
       </c>
       <c r="F237" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C238" t="s">
-        <v>405</v>
-      </c>
-      <c r="E238" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D238" t="s">
+        <v>404</v>
       </c>
       <c r="F238" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>405</v>
-      </c>
-      <c r="E239" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D239" t="s">
+        <v>404</v>
       </c>
       <c r="F239" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s">
-        <v>405</v>
-      </c>
-      <c r="E240" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D240" t="s">
+        <v>404</v>
       </c>
       <c r="F240" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D241" t="s">
+        <v>404</v>
       </c>
       <c r="F241" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="C242" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D242" t="s">
+        <v>404</v>
       </c>
       <c r="F242" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D243" t="s">
+        <v>404</v>
       </c>
       <c r="F243" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="C244" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D244" t="s">
+        <v>404</v>
       </c>
       <c r="F244" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="C245" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F245" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="C246" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F246" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="C247" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F247" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="C248" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F248" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="C249" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F249" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="C250" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F250" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C251" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F251" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C252" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F252" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F253" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C254" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F254" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="C255" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F255" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C256" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F256" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F257" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F258" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="C259" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D259" t="s">
+        <v>404</v>
       </c>
       <c r="F259" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="C260" t="s">
-        <v>405</v>
-      </c>
-      <c r="E260" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D260" t="s">
+        <v>404</v>
       </c>
       <c r="F260" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C261" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F261" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="G261" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="C262" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F262" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G262" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B263" s="1">
-        <v>201</v>
+        <v>43</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="C263" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F263" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G263" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B264" s="1">
-        <v>202</v>
+        <v>43</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C264" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F264" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G264" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B265" s="1">
-        <v>203</v>
+        <v>43</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C265" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F265" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G265" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F266" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G266" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="C267" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F267" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G267" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="C268" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F268" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G268" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>329</v>
+        <v>43</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>461</v>
       </c>
       <c r="C269" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F269" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G269" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C270" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F270" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G270" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C271" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F271" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="G271" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="C272" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F272" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="C273" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F273" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>334</v>
+        <v>202</v>
       </c>
       <c r="C274" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F274" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="C275" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F275" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="C276" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F276" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="C277" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F277" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="C278" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F278" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="C279" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D279" t="s">
+        <v>404</v>
       </c>
       <c r="F279" t="s">
-        <v>424</v>
+        <v>418</v>
+      </c>
+      <c r="G279" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C280" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F280" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>341</v>
+        <v>144</v>
       </c>
       <c r="C281" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E281" t="s">
+        <v>404</v>
       </c>
       <c r="F281" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="C282" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E282" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F282" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="C283" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E283" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F283" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>344</v>
+        <v>181</v>
       </c>
       <c r="C284" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="E284" t="s">
+        <v>404</v>
       </c>
       <c r="F284" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="C285" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="E285" t="s">
+        <v>404</v>
       </c>
       <c r="F285" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="C286" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E286" t="s">
+        <v>404</v>
       </c>
       <c r="F286" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="C287" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E287" t="s">
+        <v>404</v>
       </c>
       <c r="F287" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="C288" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E288" t="s">
+        <v>404</v>
       </c>
       <c r="F288" t="s">
-        <v>401</v>
-      </c>
-      <c r="G288" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="C289" t="s">
-        <v>405</v>
-      </c>
-      <c r="D289" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E289" t="s">
+        <v>404</v>
       </c>
       <c r="F289" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C290" t="s">
-        <v>405</v>
-      </c>
-      <c r="D290" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E290" t="s">
+        <v>404</v>
       </c>
       <c r="F290" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="C291" t="s">
-        <v>405</v>
-      </c>
-      <c r="D291" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E291" t="s">
+        <v>404</v>
       </c>
       <c r="F291" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="C292" t="s">
-        <v>405</v>
-      </c>
-      <c r="D292" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E292" t="s">
+        <v>404</v>
       </c>
       <c r="F292" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C293" t="s">
-        <v>405</v>
-      </c>
-      <c r="D293" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E293" t="s">
+        <v>404</v>
       </c>
       <c r="F293" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C294" t="s">
-        <v>405</v>
-      </c>
-      <c r="D294" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E294" t="s">
+        <v>404</v>
       </c>
       <c r="F294" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C295" t="s">
-        <v>405</v>
-      </c>
-      <c r="D295" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E295" t="s">
+        <v>404</v>
       </c>
       <c r="F295" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="C296" t="s">
-        <v>405</v>
-      </c>
-      <c r="D296" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E296" t="s">
+        <v>404</v>
       </c>
       <c r="F296" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="C297" t="s">
-        <v>405</v>
-      </c>
-      <c r="D297" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="E297" t="s">
+        <v>404</v>
       </c>
       <c r="F297" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6321,16 +6513,16 @@
         <v>62</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C298" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D298" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F298" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6338,16 +6530,16 @@
         <v>62</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C299" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D299" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F299" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6355,16 +6547,16 @@
         <v>62</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C300" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D300" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F300" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6372,16 +6564,16 @@
         <v>62</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C301" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D301" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F301" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6389,16 +6581,16 @@
         <v>62</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C302" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D302" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F302" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6406,16 +6598,16 @@
         <v>62</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C303" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D303" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F303" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,16 +6615,16 @@
         <v>62</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C304" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D304" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F304" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6440,16 +6632,16 @@
         <v>62</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C305" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D305" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F305" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6457,16 +6649,16 @@
         <v>62</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C306" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D306" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F306" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6474,16 +6666,16 @@
         <v>62</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C307" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D307" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F307" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6491,16 +6683,16 @@
         <v>62</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C308" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D308" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F308" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6508,16 +6700,16 @@
         <v>62</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C309" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D309" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F309" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6525,16 +6717,16 @@
         <v>62</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C310" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D310" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F310" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,16 +6734,16 @@
         <v>62</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C311" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D311" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F311" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,16 +6751,16 @@
         <v>62</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C312" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D312" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F312" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,16 +6768,16 @@
         <v>62</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C313" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D313" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F313" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6593,16 +6785,16 @@
         <v>62</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C314" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D314" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F314" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6610,16 +6802,16 @@
         <v>62</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C315" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D315" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F315" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6627,16 +6819,16 @@
         <v>62</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C316" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D316" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F316" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,16 +6836,16 @@
         <v>62</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C317" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D317" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F317" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6661,16 +6853,16 @@
         <v>62</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C318" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D318" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F318" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6678,16 +6870,16 @@
         <v>62</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C319" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D319" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F319" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6695,276 +6887,285 @@
         <v>62</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C320" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D320" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F320" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C321" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D321" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F321" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C322" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D322" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F322" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C323" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D323" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F323" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C324" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D324" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F324" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C325" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D325" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F325" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C326" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D326" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F326" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C327" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D327" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F327" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C328" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D328" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F328" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C329" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D329" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F329" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C330" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D330" t="s">
+        <v>404</v>
       </c>
       <c r="F330" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C331" t="s">
-        <v>405</v>
-      </c>
-      <c r="E331" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D331" t="s">
+        <v>404</v>
       </c>
       <c r="F331" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C332" t="s">
-        <v>405</v>
-      </c>
-      <c r="E332" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D332" t="s">
+        <v>404</v>
       </c>
       <c r="F332" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C333" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D333" t="s">
+        <v>404</v>
       </c>
       <c r="F333" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C334" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D334" t="s">
+        <v>404</v>
       </c>
       <c r="F334" t="s">
-        <v>401</v>
-      </c>
-      <c r="G334" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C335" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="D335" t="s">
+        <v>404</v>
       </c>
       <c r="F335" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C336" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F336" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -6972,13 +7173,13 @@
         <v>65</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C337" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F337" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -6986,22 +7187,144 @@
         <v>65</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C338" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F338" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F338">
-    <sortState ref="A2:K338">
-      <sortCondition ref="A1:A338"/>
+  <autoFilter ref="A1:G338">
+    <sortState ref="A2:G338">
+      <sortCondition ref="F1:F338"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33" style="6" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="72.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/AHU inventory.xlsx
+++ b/src/AHU inventory.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="496">
   <si>
     <t>Building</t>
   </si>
@@ -1383,9 +1383,6 @@
     <t>MSC.AH6.SCHEDULE</t>
   </si>
   <si>
-    <t>Rec Hall Main Floor_Schedule, Rec Hall_Schedule</t>
-  </si>
-  <si>
     <t>Young Hall Fan Coil Rooms</t>
   </si>
   <si>
@@ -1404,9 +1401,6 @@
     <t>MU MUII TOWER SCHEDULE</t>
   </si>
   <si>
-    <t>Everson Class Schedule</t>
-  </si>
-  <si>
     <t>ART BLDG SCHEDULE</t>
   </si>
   <si>
@@ -1434,18 +1428,12 @@
     <t>BAINER HALL TOWER AC SCHEDULE</t>
   </si>
   <si>
-    <t>MU S8 SCHEDULE</t>
-  </si>
-  <si>
     <t>RM 2405</t>
   </si>
   <si>
     <t>All AHUs - need to make group in siemens scheduler</t>
   </si>
   <si>
-    <t>SCC.CONFERENCE.ZONE, SCC.BLDG.ZONE</t>
-  </si>
-  <si>
     <t xml:space="preserve">MULTI-PURPOSE ROOM W/ S. </t>
   </si>
   <si>
@@ -1455,24 +1443,12 @@
     <t>Rec Hall Main Floor_Schedule</t>
   </si>
   <si>
-    <t>GSM.AHU2.ZONE, GSM.AHU3.ZONE, GSM.AHU4.ZONE, GSM.CP.SYSTEM.ZONE, GSM.WINDOW.CONF1.ZONE, GSM.WINDOW.CONF2.ZONE</t>
-  </si>
-  <si>
     <t>GSM.AHU2.ZONE</t>
   </si>
   <si>
     <t>GSM.AHU4.ZONE</t>
   </si>
   <si>
-    <t>GSM.AHU3.ZONE, GSM.CP.SYSTEM.ZONE, GSM.WINDOW.CONF1.ZONE, GSM.WINDOW.CONF2.ZONE</t>
-  </si>
-  <si>
-    <t>GSM.AHU2.ZONE, GSM.AHU4.ZONE, GSM.CP.SYSTEM.ZONE, GSM.WINDOW.CONF1.ZONE, GSM.WINDOW.CONF2.ZONE</t>
-  </si>
-  <si>
-    <t>SCC.BLDG.ZONE, SCC.CCC.ZONE</t>
-  </si>
-  <si>
     <t>AC1 probably, need to confirm drawings</t>
   </si>
   <si>
@@ -1536,9 +1512,6 @@
     <t>RM 0165</t>
   </si>
   <si>
-    <t>ARC AHU1 SCHEDULE, ARC AHU2 SCHEDULE</t>
-  </si>
-  <si>
     <t>RM 2406</t>
   </si>
   <si>
@@ -1560,9 +1533,6 @@
     <t>DRAMA AC06 SCHEDULE</t>
   </si>
   <si>
-    <t>DRAMA AC05 SCHEDULE, DRAMA AC06 SCHEDULE, DRAMA AC07 SCHEDULE</t>
-  </si>
-  <si>
     <t>SCHOOL OF ED. E. LAWN</t>
   </si>
   <si>
@@ -1573,6 +1543,33 @@
   </si>
   <si>
     <t>ARC AHU7 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ARC AHU1 SCHEDULE,ARC AHU2 SCHEDULE</t>
+  </si>
+  <si>
+    <t>DRAMA AC05 SCHEDULE,DRAMA AC06 SCHEDULE,DRAMA AC07 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Rec Hall Main Floor_Schedule,Rec Hall_Schedule</t>
+  </si>
+  <si>
+    <t>SCC.BLDG.ZONE,SCC.CCC.ZONE</t>
+  </si>
+  <si>
+    <t>SCC.CONFERENCE.ZONE,SCC.BLDG.ZONE</t>
+  </si>
+  <si>
+    <t>GSM.AHU2.ZONE,GSM.AHU3.ZONE,GSM.AHU4.ZONE,GSM.CP.SYSTEM.ZONE,GSM.WINDOW.CONF1.ZONE,GSM.WINDOW.CONF2.ZONE</t>
+  </si>
+  <si>
+    <t>GSM.AHU2.ZONE,GSM.AHU4.ZONE,GSM.CP.SYSTEM.ZONE,GSM.WINDOW.CONF1.ZONE,GSM.WINDOW.CONF2.ZONE</t>
+  </si>
+  <si>
+    <t>GSM.AHU3.ZONE,GSM.CP.SYSTEM.ZONE,GSM.WINDOW.CONF1.ZONE,GSM.WINDOW.CONF2.ZONE</t>
   </si>
 </sst>
 </file>
@@ -2061,8 +2058,8 @@
   <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,7 +2072,7 @@
     <col min="6" max="6" width="122.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2094,8 +2091,11 @@
       <c r="F1" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2834,10 +2834,10 @@
         <v>404</v>
       </c>
       <c r="F54" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G54" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
         <v>404</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G65" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,10 +3008,10 @@
         <v>404</v>
       </c>
       <c r="F66" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G66" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3025,10 +3025,10 @@
         <v>404</v>
       </c>
       <c r="F67" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G67" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3042,10 +3042,10 @@
         <v>404</v>
       </c>
       <c r="F68" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G68" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>404</v>
       </c>
       <c r="F69" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G69" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,10 +3076,10 @@
         <v>404</v>
       </c>
       <c r="F70" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G70" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3093,10 +3093,10 @@
         <v>404</v>
       </c>
       <c r="F71" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3124,10 +3124,10 @@
         <v>404</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G73" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>404</v>
       </c>
       <c r="F74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,10 +3155,10 @@
         <v>404</v>
       </c>
       <c r="F75" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G75" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3172,10 +3172,10 @@
         <v>404</v>
       </c>
       <c r="F76" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G76" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3189,10 +3189,10 @@
         <v>404</v>
       </c>
       <c r="F77" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G77" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>404</v>
       </c>
       <c r="F78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>404</v>
       </c>
       <c r="F79" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
         <v>403</v>
       </c>
       <c r="F83" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,7 +3302,7 @@
         <v>404</v>
       </c>
       <c r="F84" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,10 +3344,10 @@
         <v>404</v>
       </c>
       <c r="F87" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G87" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>419</v>
       </c>
       <c r="G88" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3378,10 +3378,10 @@
         <v>404</v>
       </c>
       <c r="F89" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G89" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>404</v>
       </c>
       <c r="F91" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>404</v>
       </c>
       <c r="F108" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,7 +3693,7 @@
         <v>404</v>
       </c>
       <c r="F110" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,10 +3777,10 @@
         <v>404</v>
       </c>
       <c r="F116" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G116" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3982,10 +3982,10 @@
         <v>404</v>
       </c>
       <c r="F130" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G130" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
         <v>419</v>
       </c>
       <c r="G145" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4218,10 +4218,10 @@
         <v>404</v>
       </c>
       <c r="F146" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G146" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4235,7 +4235,7 @@
         <v>404</v>
       </c>
       <c r="F147" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
         <v>404</v>
       </c>
       <c r="F148" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G148">
         <v>438</v>
@@ -4266,10 +4266,10 @@
         <v>404</v>
       </c>
       <c r="F149" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G149" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>404</v>
       </c>
       <c r="F150" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G150">
         <v>214</v>
@@ -4300,7 +4300,7 @@
         <v>404</v>
       </c>
       <c r="F151" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G151">
         <v>212</v>
@@ -4990,7 +4990,7 @@
         <v>404</v>
       </c>
       <c r="F193" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>404</v>
       </c>
       <c r="F194" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5018,7 +5018,7 @@
         <v>404</v>
       </c>
       <c r="F195" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5032,7 +5032,7 @@
         <v>404</v>
       </c>
       <c r="F196" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,7 +5046,7 @@
         <v>404</v>
       </c>
       <c r="F197" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5060,7 +5060,7 @@
         <v>404</v>
       </c>
       <c r="F198" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5074,7 +5074,7 @@
         <v>404</v>
       </c>
       <c r="F199" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
         <v>404</v>
       </c>
       <c r="F200" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5102,7 +5102,7 @@
         <v>404</v>
       </c>
       <c r="F201" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>404</v>
       </c>
       <c r="F202" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
         <v>404</v>
       </c>
       <c r="F203" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
         <v>404</v>
       </c>
       <c r="F204" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5158,7 +5158,7 @@
         <v>404</v>
       </c>
       <c r="F205" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,10 +5285,10 @@
         <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="G213" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5302,10 +5302,10 @@
         <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G214" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5319,7 +5319,7 @@
         <v>404</v>
       </c>
       <c r="F215" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G215" t="s">
         <v>420</v>
@@ -5336,7 +5336,7 @@
         <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G216" t="s">
         <v>421</v>
@@ -5353,7 +5353,7 @@
         <v>404</v>
       </c>
       <c r="F217" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G217" t="s">
         <v>422</v>
@@ -5370,7 +5370,7 @@
         <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G218" t="s">
         <v>423</v>
@@ -5387,7 +5387,7 @@
         <v>404</v>
       </c>
       <c r="F219" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G219" t="s">
         <v>424</v>
@@ -5398,13 +5398,13 @@
         <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C220" t="s">
         <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5418,7 +5418,7 @@
         <v>404</v>
       </c>
       <c r="F221" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G221" t="s">
         <v>425</v>
@@ -5439,7 +5439,7 @@
         <v>-1</v>
       </c>
       <c r="F222" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G222" t="s">
         <v>426</v>
@@ -5450,13 +5450,13 @@
         <v>43</v>
       </c>
       <c r="B223" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C223" t="s">
         <v>404</v>
       </c>
       <c r="F223" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G223" t="s">
         <v>426</v>
@@ -5473,7 +5473,7 @@
         <v>404</v>
       </c>
       <c r="F224" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G224" t="s">
         <v>427</v>
@@ -5490,10 +5490,10 @@
         <v>404</v>
       </c>
       <c r="F225" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G225" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,7 +6066,7 @@
         <v>419</v>
       </c>
       <c r="G264" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -6083,7 +6083,7 @@
         <v>419</v>
       </c>
       <c r="G265" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
         <v>419</v>
       </c>
       <c r="G266" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6117,7 +6117,7 @@
         <v>419</v>
       </c>
       <c r="G267" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -6215,7 +6215,7 @@
         <v>404</v>
       </c>
       <c r="F274" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
         <v>404</v>
       </c>
       <c r="F275" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6243,7 +6243,7 @@
         <v>404</v>
       </c>
       <c r="F276" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -6257,7 +6257,7 @@
         <v>404</v>
       </c>
       <c r="F277" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -6271,7 +6271,7 @@
         <v>404</v>
       </c>
       <c r="F278" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
         <v>404</v>
       </c>
       <c r="F279" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>404</v>
       </c>
       <c r="F280" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -6313,7 +6313,7 @@
         <v>404</v>
       </c>
       <c r="F281" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -6327,7 +6327,7 @@
         <v>404</v>
       </c>
       <c r="F282" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -6403,7 +6403,7 @@
         <v>404</v>
       </c>
       <c r="F287" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -6417,10 +6417,10 @@
         <v>404</v>
       </c>
       <c r="F288" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G288" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
         <v>404</v>
       </c>
       <c r="F289" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7210,7 +7210,7 @@
         <v>419</v>
       </c>
       <c r="G335" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -7238,7 +7238,7 @@
         <v>404</v>
       </c>
       <c r="F337" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7252,7 +7252,7 @@
         <v>404</v>
       </c>
       <c r="F338" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7266,12 +7266,12 @@
         <v>404</v>
       </c>
       <c r="F339" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F340" t="s">
         <v>419</v>
@@ -7306,7 +7306,7 @@
   <sheetData>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7317,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7328,7 +7328,7 @@
         <v>115</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7339,7 +7339,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7350,7 +7350,7 @@
         <v>151</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7361,7 +7361,7 @@
         <v>204</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7372,7 +7372,7 @@
         <v>211</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7383,7 +7383,7 @@
         <v>277</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7391,10 +7391,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
         <v>278</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/src/AHU inventory.xlsx
+++ b/src/AHU inventory.xlsx
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nicolas X Fauchier-Magnan:</t>
         </r>
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 this one has a space at the end of the name - keep it just to avoid potential mismatches</t>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="537">
   <si>
     <t>Building</t>
   </si>
@@ -1570,13 +1570,136 @@
   </si>
   <si>
     <t>GSM.AHU3.ZONE,GSM.CP.SYSTEM.ZONE,GSM.WINDOW.CONF1.ZONE,GSM.WINDOW.CONF2.ZONE</t>
+  </si>
+  <si>
+    <t>SMOA</t>
+  </si>
+  <si>
+    <t>COWELL</t>
+  </si>
+  <si>
+    <t>SHIELDS</t>
+  </si>
+  <si>
+    <t>MEDSCI B</t>
+  </si>
+  <si>
+    <t>PHYS ENG LIBRARY</t>
+  </si>
+  <si>
+    <t>MRAK</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>Shutdown Shrem Museum Non Art Space</t>
+  </si>
+  <si>
+    <t>Shutdown Hickey Gym</t>
+  </si>
+  <si>
+    <t>Shutdown Cowell Athletic Offices</t>
+  </si>
+  <si>
+    <t>Shutdown ARC Special 1</t>
+  </si>
+  <si>
+    <t>Shutdown MU Games Area</t>
+  </si>
+  <si>
+    <t>Shutdown MU Amazon</t>
+  </si>
+  <si>
+    <t>Shutdown MU Bookstore</t>
+  </si>
+  <si>
+    <t>Shutdown MU Special 1</t>
+  </si>
+  <si>
+    <t>Shutdown Shields</t>
+  </si>
+  <si>
+    <t>Shutdown Carlson Health Science Library</t>
+  </si>
+  <si>
+    <t>Shutdown Physical Science Engineering Library</t>
+  </si>
+  <si>
+    <t>Shutdown SCC</t>
+  </si>
+  <si>
+    <t>Shutdown Mrak 250</t>
+  </si>
+  <si>
+    <t>Shutdown Academic Surge 1283</t>
+  </si>
+  <si>
+    <t>ARC AHU2 SCHEDULE,ARC AHU3 SCHEDULE,ARC AHU4 SCHEDULE,ARC AHU5 SCHEDULE,ARC AHU6 SCHEDULE,ARC AHU7 SCHEDULE</t>
+  </si>
+  <si>
+    <t>SMOA.AH2.ZONE</t>
+  </si>
+  <si>
+    <t>HICK.AC01.SSTOZONE,HICK.AC02.SSTOZONE,HICK.CMA.EASTGYM,HICK.FCU01.SSTOZone,HICK.FCU02.SSTOZone,HICK.FCU03.SSTOZone,HICK.FCU04.SSTOZone,HICK.FCU11.ZONE,HICK.FCU13.ZONE,HICK.FCU8.FANSS.ZONEMODE,HICKEY RM 200 BAFS ZONE</t>
+  </si>
+  <si>
+    <t>COWL.MZ1.SSTOZONE</t>
+  </si>
+  <si>
+    <t>MU.AHU02.ZONE</t>
+  </si>
+  <si>
+    <t>MU AHU05 SCHEDULE</t>
+  </si>
+  <si>
+    <t>MU AHU04 SCHEDULE</t>
+  </si>
+  <si>
+    <t>MU AHU01 SCHEDULE,MU BOOKSTORE SCHEDULE,MU DINING COHO SCHEDULE,MU MUII TOWER SCHEDULE,MU.AHU03.ZONE</t>
+  </si>
+  <si>
+    <t>SHIELDS AC01 SCHEDULE,SHIELDS AC02 SCHEDULE,SHIELDS AC21 SCHEDULE,SHIELDS AC51 SCHEDULE,SHIELDS AC52 SCHEDULE,SHIELDS AC53 SCHEDULE,SHIELDS AC54 SCHEDULE,SHIELDS AH01 SCHEDULE,SHIELD AH02 SCHEDULE,SHIELDS.AC23.OFFICEZONE</t>
+  </si>
+  <si>
+    <t>Med Sci B_LowerLevel_Schedule,Med Sci B_UpLibNorth_Schedule,Med Sci B_UpLibSouth_Schedule</t>
+  </si>
+  <si>
+    <t>PHLS.AC1.ZONE</t>
+  </si>
+  <si>
+    <t>SCC.BLDG.ZONE,SCC.CAFE.ZONE,SCC.CCC.ZONE,SCC.CONFERENCE.ZONE,SCC.IET_MEDIA.ZONE,SCC.LGBT.ZONE,SCC.SRRC.ZONE,SCC.URC.ZONE</t>
+  </si>
+  <si>
+    <t>MRAK.AC04.SCHEDULE</t>
+  </si>
+  <si>
+    <t>ACAD AHU8 SCHEDULE</t>
+  </si>
+  <si>
+    <t>VALLEY</t>
+  </si>
+  <si>
+    <t>Shutdown Valley</t>
+  </si>
+  <si>
+    <t>VMIF.Occupancy.Event</t>
+  </si>
+  <si>
+    <t>LSA</t>
+  </si>
+  <si>
+    <t>Shutdown LSA</t>
+  </si>
+  <si>
+    <t>LSA.AHU05.SCHEDULE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,19 +1743,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1642,7 +1752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1717,11 +1827,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1751,6 +1872,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2055,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7231,13 +7360,15 @@
       <c r="A337" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C337" t="s">
-        <v>404</v>
-      </c>
-      <c r="F337" t="s">
+      <c r="C337" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
+      <c r="F337" s="11" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7245,13 +7376,15 @@
       <c r="A338" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C338" t="s">
-        <v>404</v>
-      </c>
-      <c r="F338" t="s">
+      <c r="C338" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7259,22 +7392,254 @@
       <c r="A339" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="C339" t="s">
-        <v>404</v>
-      </c>
-      <c r="F339" t="s">
+      <c r="C339" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
+      <c r="F339" s="11" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B340" t="s">
+      <c r="A340" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B340" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="F340" t="s">
-        <v>419</v>
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C341" s="11"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
+      <c r="F341" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C343" s="11"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
+      <c r="F343" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C344" s="11"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
+      <c r="F344" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C345" s="11"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
+      <c r="F345" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C346" s="11"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
+      <c r="F346" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
+      <c r="F347" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C349" s="11"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="11"/>
+      <c r="F349" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C350" s="11"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
+      <c r="F350" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="11"/>
+      <c r="F351" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C352" s="11"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="11"/>
+      <c r="F352" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
+      <c r="F354" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
+      <c r="F355" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
+      <c r="F356" s="12" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
